--- a/2 Семестр/2.4.1/2.4.1.xlsx
+++ b/2 Семестр/2.4.1/2.4.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polub\Desktop\ЛАБЫ\2 Семестр\2.4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C2BAAD-B2A3-44D2-B83A-E5A2AAD0FC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA85BBA-40E8-4A73-B3F9-19670E39587C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,7 +610,7 @@
         <v>9.4700000000000006</v>
       </c>
       <c r="N7">
-        <f>2*M7-($B$1+$B$2)</f>
+        <f t="shared" ref="N7:N19" si="0">2*M7-($B$1+$B$2)</f>
         <v>5.0100000000000016</v>
       </c>
       <c r="O7">
@@ -634,19 +634,19 @@
         <v>7.75</v>
       </c>
       <c r="C8">
-        <f>2*B8-($B$1+$B$2)</f>
+        <f t="shared" ref="C7:C19" si="1">2*B8-($B$1+$B$2)</f>
         <v>1.5700000000000003</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D19" si="0">C8*133.2*10</f>
+        <f t="shared" ref="D8:D19" si="2">C8*133.2*10</f>
         <v>2091.2400000000002</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F19" si="1">1/A8</f>
+        <f t="shared" ref="F8:F19" si="3">1/A8</f>
         <v>3.4106412005457027E-3</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G19" si="2">LN(D8)</f>
+        <f t="shared" ref="G8:G19" si="4">LN(D8)</f>
         <v>7.6455124704605515</v>
       </c>
       <c r="L8">
@@ -656,19 +656,19 @@
         <v>9.23</v>
       </c>
       <c r="N8">
-        <f>2*M8-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>4.5300000000000011</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O19" si="3">N8*133.2*10</f>
+        <f t="shared" ref="O8:O19" si="5">N8*133.2*10</f>
         <v>6033.9600000000009</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8:Q19" si="4">1/L8</f>
+        <f t="shared" ref="Q8:Q19" si="6">1/L8</f>
         <v>3.2206119162640902E-3</v>
       </c>
       <c r="R8">
-        <f t="shared" ref="R8:R19" si="5">LN(O8)</f>
+        <f t="shared" ref="R8:R13" si="7">LN(O8)</f>
         <v>8.7051587905952772</v>
       </c>
     </row>
@@ -680,19 +680,19 @@
         <v>7.8</v>
       </c>
       <c r="C9">
-        <f>2*B9-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>1.67</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2224.4399999999996</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.3772374197906111E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.7072604775289983</v>
       </c>
       <c r="L9">
@@ -702,19 +702,19 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="N9">
-        <f>2*M9-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>4.1499999999999986</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5527.7999999999975</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2362459546925568E-3</v>
       </c>
       <c r="R9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.6175451853429408</v>
       </c>
     </row>
@@ -726,19 +726,19 @@
         <v>7.95</v>
       </c>
       <c r="C10">
-        <f>2*B10-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>1.9700000000000006</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2624.0400000000004</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.3557046979865771E-3</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8724703938502314</v>
       </c>
       <c r="L10">
@@ -748,19 +748,19 @@
         <v>8.9</v>
       </c>
       <c r="N10">
-        <f>2*M10-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>3.870000000000001</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5154.84</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2520325203252032E-3</v>
       </c>
       <c r="R10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.5476913581420249</v>
       </c>
     </row>
@@ -772,19 +772,19 @@
         <v>8.09</v>
       </c>
       <c r="C11">
-        <f>2*B11-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2997</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.0053670673166639</v>
       </c>
       <c r="L11">
@@ -794,19 +794,19 @@
         <v>8.76</v>
       </c>
       <c r="N11">
-        <f>2*M11-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>3.59</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4781.8799999999992</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2679738562091504E-3</v>
       </c>
       <c r="R11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.4725890536005224</v>
       </c>
     </row>
@@ -818,19 +818,19 @@
         <v>8.26</v>
       </c>
       <c r="C12">
-        <f>2*B12-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>2.59</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3449.8799999999992</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.3101621979476992E-3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.1460947268117803</v>
       </c>
       <c r="L12">
@@ -840,19 +840,19 @@
         <v>8.6</v>
       </c>
       <c r="N12">
-        <f>2*M12-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>3.2699999999999996</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4355.6399999999994</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2840722495894909E-3</v>
       </c>
       <c r="R12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.3792268360094955</v>
       </c>
     </row>
@@ -864,19 +864,19 @@
         <v>8.43</v>
       </c>
       <c r="C13">
-        <f>2*B13-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>2.9299999999999997</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3902.7599999999993</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2894736842105261E-3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.2694392741293097</v>
       </c>
       <c r="L13">
@@ -886,19 +886,19 @@
         <v>8.48</v>
       </c>
       <c r="N13">
-        <f>2*M13-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>3.0300000000000011</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4035.9600000000009</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3003300330033004E-3</v>
       </c>
       <c r="R13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.3029994706216126</v>
       </c>
     </row>
@@ -910,15 +910,15 @@
         <v>8.64</v>
       </c>
       <c r="C14">
-        <f>2*B14-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>3.3500000000000014</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4462.2000000000016</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2679738562091504E-3</v>
       </c>
       <c r="G14">
@@ -932,15 +932,15 @@
         <v>8.33</v>
       </c>
       <c r="N14">
-        <f>2*M14-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2.7300000000000004</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3636.36</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3167495854063019E-3</v>
       </c>
       <c r="R14">
@@ -956,19 +956,19 @@
         <v>8.83</v>
       </c>
       <c r="C15">
-        <f>2*B15-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>3.7300000000000004</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4968.3600000000006</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2520325203252032E-3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.5108450847560579</v>
       </c>
       <c r="L15">
@@ -978,19 +978,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N15">
-        <f>2*M15-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2.4699999999999989</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3290.0399999999986</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="R15">
-        <f t="shared" ref="R15:R19" si="6">LN(O15)</f>
+        <f t="shared" ref="R15:R19" si="8">LN(O15)</f>
         <v>8.0986550017402195</v>
       </c>
     </row>
@@ -1002,19 +1002,19 @@
         <v>8.98</v>
       </c>
       <c r="C16">
-        <f>2*B16-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>4.0300000000000011</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5367.9600000000009</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2362459546925568E-3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.5882032270589264</v>
       </c>
       <c r="L16">
@@ -1024,19 +1024,19 @@
         <v>8.07</v>
       </c>
       <c r="N16">
-        <f>2*M16-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>2.2100000000000009</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2943.7200000000007</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3500837520938024E-3</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.9874293666299963</v>
       </c>
     </row>
@@ -1048,19 +1048,19 @@
         <v>9.18</v>
       </c>
       <c r="C17">
-        <f>2*B17-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>4.43</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5900.7599999999993</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2206119162640902E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.6828364351573786</v>
       </c>
       <c r="L17">
@@ -1070,19 +1070,19 @@
         <v>7.96</v>
       </c>
       <c r="N17">
-        <f>2*M17-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1.9900000000000002</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2650.68</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3670033670033669E-3</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.8825714898367352</v>
       </c>
     </row>
@@ -1094,19 +1094,19 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="C18">
-        <f>2*B18-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>4.8300000000000018</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6433.5600000000022</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.205128205128205E-3</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.7692833187648169</v>
       </c>
       <c r="L18">
@@ -1116,19 +1116,19 @@
         <v>7.83</v>
       </c>
       <c r="N18">
-        <f>2*M18-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1.7300000000000004</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2304.3600000000006</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3840947546531302E-3</v>
       </c>
       <c r="R18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.7425582596100222</v>
       </c>
     </row>
@@ -1140,19 +1140,19 @@
         <v>9.59</v>
       </c>
       <c r="C19">
-        <f>2*B19-($B$1+$B$2)</f>
+        <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6993</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.189792663476874E-3</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.8526649277038665</v>
       </c>
       <c r="L19">
@@ -1162,19 +1162,19 @@
         <v>7.76</v>
       </c>
       <c r="N19">
-        <f>2*M19-($B$1+$B$2)</f>
+        <f t="shared" si="0"/>
         <v>1.5899999999999999</v>
       </c>
       <c r="O19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2117.8799999999997</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4013605442176869E-3</v>
       </c>
       <c r="R19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6581708673324744</v>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
         <v>77.543395174451916</v>
       </c>
       <c r="Q24">
-        <f t="shared" ref="Q24" si="7">L24*M24</f>
+        <f t="shared" ref="Q24" si="9">L24*M24</f>
         <v>2.822395117370868E-2</v>
       </c>
       <c r="S24">
@@ -1272,19 +1272,19 @@
         <v>3.4106412005457027E-3</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B36" si="8">LN(D8)</f>
+        <f t="shared" ref="B25:B36" si="10">LN(D8)</f>
         <v>7.6455124704605515</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D36" si="9">A25*A25</f>
+        <f t="shared" ref="D25:D36" si="11">A25*A25</f>
         <v>1.1632473398859833E-5</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:E36" si="10">B25*B25</f>
+        <f t="shared" ref="E25:E36" si="12">B25*B25</f>
         <v>58.453860935967803</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F36" si="11">A25*B25</f>
+        <f t="shared" ref="F25:F36" si="13">A25*B25</f>
         <v>2.6076099831038715E-2</v>
       </c>
       <c r="H25">
@@ -1300,637 +1300,637 @@
         <v>3.2206119162640902E-3</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:M36" si="12">LN(O8)</f>
+        <f t="shared" ref="M25:M36" si="14">LN(O8)</f>
         <v>8.7051587905952772</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25:O36" si="13">L25*L25</f>
+        <f t="shared" ref="O25:O36" si="15">L25*L25</f>
         <v>1.0372341115182255E-5</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25:P36" si="14">M25*M25</f>
+        <f t="shared" ref="P25:P36" si="16">M25*M25</f>
         <v>75.779789569478226</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25:Q36" si="15">L25*M25</f>
+        <f t="shared" ref="Q25:Q36" si="17">L25*M25</f>
         <v>2.8035938133962244E-2</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25:S36" si="16">L25*$F$1/L8</f>
+        <f t="shared" ref="S25:S36" si="18">L25*$F$1/L8</f>
         <v>1.0372341115182255E-6</v>
       </c>
       <c r="T25">
-        <f t="shared" ref="T25:T36" si="17">$F$3/O8</f>
+        <f t="shared" ref="T25:T36" si="19">$F$3/O8</f>
         <v>2.2075055187637965E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" ref="A25:A36" si="18">1/A9</f>
+        <f t="shared" ref="A26:A36" si="20">1/A9</f>
         <v>3.3772374197906111E-3</v>
       </c>
       <c r="B26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.7072604775289983</v>
       </c>
       <c r="D26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1405732589633943E-5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>59.401864068480521</v>
       </c>
       <c r="F26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6029248488784188E-2</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H36" si="19">A26*$F$1/A8</f>
+        <f t="shared" ref="H26:H36" si="21">A26*$F$1/A8</f>
         <v>1.1518545087962523E-6</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:I36" si="20">$F$3/D8</f>
+        <f t="shared" ref="I26:I36" si="22">$F$3/D8</f>
         <v>6.3694267515923553E-3</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L25:L36" si="21">1/L9</f>
+        <f t="shared" ref="L26:L35" si="23">1/L9</f>
         <v>3.2362459546925568E-3</v>
       </c>
       <c r="M26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.6175451853429408</v>
       </c>
       <c r="O26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0473287879263938E-5</v>
       </c>
       <c r="P26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>74.262085021427296</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7888495745446412E-2</v>
       </c>
       <c r="S26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0473287879263938E-6</v>
       </c>
       <c r="T26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.4096385542168681E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
+        <f t="shared" si="20"/>
+        <v>3.3557046979865771E-3</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="10"/>
+        <v>7.8724703938502314</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="11"/>
+        <v>1.1260754020089185E-5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="12"/>
+        <v>61.975790102048414</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="13"/>
+        <v>2.6417685885403462E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="21"/>
+        <v>1.1333011475807421E-6</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="22"/>
+        <v>5.9880239520958087E-3</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="23"/>
+        <v>3.2520325203252032E-3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="14"/>
+        <v>8.5476913581420249</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="15"/>
+        <v>1.0575715513252693E-5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="16"/>
+        <v>73.06302755405585</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="17"/>
+        <v>2.7797370270380567E-2</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="18"/>
-        <v>3.3557046979865771E-3</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="8"/>
-        <v>7.8724703938502314</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="9"/>
-        <v>1.1260754020089185E-5</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="10"/>
-        <v>61.975790102048414</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="11"/>
-        <v>2.6417685885403462E-2</v>
-      </c>
-      <c r="H27">
+        <v>1.0575715513252694E-6</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="19"/>
-        <v>1.1333011475807421E-6</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="20"/>
-        <v>5.9880239520958087E-3</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="21"/>
-        <v>3.2520325203252032E-3</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="12"/>
-        <v>8.5476913581420249</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="13"/>
-        <v>1.0575715513252693E-5</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="14"/>
-        <v>73.06302755405585</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="15"/>
-        <v>2.7797370270380567E-2</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="16"/>
-        <v>1.0575715513252694E-6</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="17"/>
         <v>2.5839793281653744E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
+        <f t="shared" si="20"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="10"/>
+        <v>8.0053670673166639</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="11"/>
+        <v>1.1111111111111113E-5</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="12"/>
+        <v>64.085901882478211</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="13"/>
+        <v>2.6684556891055547E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="21"/>
+        <v>1.1185682326621925E-6</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="22"/>
+        <v>5.0761421319796942E-3</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="23"/>
+        <v>3.2679738562091504E-3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="14"/>
+        <v>8.4725890536005224</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="15"/>
+        <v>1.0679653124866506E-5</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="16"/>
+        <v>71.78476527119139</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="17"/>
+        <v>2.7688199521570336E-2</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="18"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="8"/>
-        <v>8.0053670673166639</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="9"/>
-        <v>1.1111111111111113E-5</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="10"/>
-        <v>64.085901882478211</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="11"/>
-        <v>2.6684556891055547E-2</v>
-      </c>
-      <c r="H28">
+        <v>1.0679653124866504E-6</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="19"/>
-        <v>1.1185682326621925E-6</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="20"/>
-        <v>5.0761421319796942E-3</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="21"/>
-        <v>3.2679738562091504E-3</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="12"/>
-        <v>8.4725890536005224</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="13"/>
-        <v>1.0679653124866506E-5</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="14"/>
-        <v>71.78476527119139</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="15"/>
-        <v>2.7688199521570336E-2</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="16"/>
-        <v>1.0679653124866504E-6</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="17"/>
         <v>2.7855153203342618E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
+        <f t="shared" si="20"/>
+        <v>3.3101621979476992E-3</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="10"/>
+        <v>8.1460947268117803</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="11"/>
+        <v>1.0957173776721944E-5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="12"/>
+        <v>66.358859298190694</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="13"/>
+        <v>2.6964894825593444E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="21"/>
+        <v>1.1033873993158999E-6</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="22"/>
+        <v>4.4444444444444436E-3</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="23"/>
+        <v>3.2840722495894909E-3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="14"/>
+        <v>8.3792268360094955</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="15"/>
+        <v>1.0785130540523779E-5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="16"/>
+        <v>70.211442369301707</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="17"/>
+        <v>2.7517986325154335E-2</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="18"/>
-        <v>3.3101621979476992E-3</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="8"/>
-        <v>8.1460947268117803</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="9"/>
-        <v>1.0957173776721944E-5</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="10"/>
-        <v>66.358859298190694</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="11"/>
-        <v>2.6964894825593444E-2</v>
-      </c>
-      <c r="H29">
+        <v>1.078513054052378E-6</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="19"/>
-        <v>1.1033873993158999E-6</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="20"/>
-        <v>4.4444444444444436E-3</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="21"/>
-        <v>3.2840722495894909E-3</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="12"/>
-        <v>8.3792268360094955</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="13"/>
-        <v>1.0785130540523779E-5</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="14"/>
-        <v>70.211442369301707</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="15"/>
-        <v>2.7517986325154335E-2</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="16"/>
-        <v>1.078513054052378E-6</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="17"/>
         <v>3.0581039755351682E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
+        <f t="shared" si="20"/>
+        <v>3.2894736842105261E-3</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="10"/>
+        <v>8.2694392741293097</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="11"/>
+        <v>1.0820637119113572E-5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="12"/>
+        <v>68.383625908512286</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="13"/>
+        <v>2.720210287542536E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="21"/>
+        <v>1.0888691440617431E-6</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="22"/>
+        <v>3.8610038610038615E-3</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="23"/>
+        <v>3.3003300330033004E-3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="14"/>
+        <v>8.3029994706216126</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="15"/>
+        <v>1.0892178326743566E-5</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="16"/>
+        <v>68.939800209142774</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="17"/>
+        <v>2.7402638516903013E-2</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="18"/>
-        <v>3.2894736842105261E-3</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="8"/>
-        <v>8.2694392741293097</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="9"/>
-        <v>1.0820637119113572E-5</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="10"/>
-        <v>68.383625908512286</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="11"/>
-        <v>2.720210287542536E-2</v>
-      </c>
-      <c r="H30">
+        <v>1.0892178326743566E-6</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="19"/>
-        <v>1.0888691440617431E-6</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="20"/>
-        <v>3.8610038610038615E-3</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="21"/>
-        <v>3.3003300330033004E-3</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="12"/>
-        <v>8.3029994706216126</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="13"/>
-        <v>1.0892178326743566E-5</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="14"/>
-        <v>68.939800209142774</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="15"/>
-        <v>2.7402638516903013E-2</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="16"/>
-        <v>1.0892178326743566E-6</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="17"/>
         <v>3.3003300330032991E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
+        <f t="shared" si="20"/>
+        <v>3.2679738562091504E-3</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="10"/>
+        <v>8.4033971969373091</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="11"/>
+        <v>1.0679653124866506E-5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="12"/>
+        <v>70.617084449493831</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="13"/>
+        <v>2.7462082342932383E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="21"/>
+        <v>1.0749914000687996E-6</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="22"/>
+        <v>3.4129692832764505E-3</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="23"/>
+        <v>3.3167495854063019E-3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="14"/>
+        <v>8.1987384602972035</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="15"/>
+        <v>1.1000827812292875E-5</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="16"/>
+        <v>67.219312340356566</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="17"/>
+        <v>2.7193162389045452E-2</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="18"/>
-        <v>3.2679738562091504E-3</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="8"/>
-        <v>8.4033971969373091</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="9"/>
-        <v>1.0679653124866506E-5</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="10"/>
-        <v>70.617084449493831</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="11"/>
-        <v>2.7462082342932383E-2</v>
-      </c>
-      <c r="H31">
+        <v>1.1000827812292878E-6</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="19"/>
-        <v>1.0749914000687996E-6</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="20"/>
-        <v>3.4129692832764505E-3</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="21"/>
-        <v>3.3167495854063019E-3</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="12"/>
-        <v>8.1987384602972035</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="13"/>
-        <v>1.1000827812292875E-5</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="14"/>
-        <v>67.219312340356566</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="15"/>
-        <v>2.7193162389045452E-2</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="16"/>
-        <v>1.1000827812292878E-6</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="17"/>
         <v>3.6630036630036626E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
+        <f t="shared" si="20"/>
+        <v>3.2520325203252032E-3</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="10"/>
+        <v>8.5108450847560579</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="11"/>
+        <v>1.0575715513252693E-5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="12"/>
+        <v>72.434484056716357</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="13"/>
+        <v>2.7677544991076612E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="21"/>
+        <v>1.0627557255964717E-6</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="22"/>
+        <v>2.9850746268656704E-3</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="14"/>
+        <v>8.0986550017402195</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="15"/>
+        <v>1.1111111111111113E-5</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="16"/>
+        <v>65.58821283721187</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="17"/>
+        <v>2.6995516672467398E-2</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="18"/>
-        <v>3.2520325203252032E-3</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="8"/>
-        <v>8.5108450847560579</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="9"/>
-        <v>1.0575715513252693E-5</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="10"/>
-        <v>72.434484056716357</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="11"/>
-        <v>2.7677544991076612E-2</v>
-      </c>
-      <c r="H32">
+        <v>1.1111111111111112E-6</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="19"/>
-        <v>1.0627557255964717E-6</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="20"/>
-        <v>2.9850746268656704E-3</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="21"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="12"/>
-        <v>8.0986550017402195</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="13"/>
-        <v>1.1111111111111113E-5</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="14"/>
-        <v>65.58821283721187</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="15"/>
-        <v>2.6995516672467398E-2</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="16"/>
-        <v>1.1111111111111112E-6</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="17"/>
         <v>4.0485829959514179E-3</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
+        <f t="shared" si="20"/>
+        <v>3.2362459546925568E-3</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="10"/>
+        <v>8.5882032270589264</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="11"/>
+        <v>1.0473287879263938E-5</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="12"/>
+        <v>73.757234669265358</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="13"/>
+        <v>2.7793537951647011E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="21"/>
+        <v>1.0524377088431081E-6</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="22"/>
+        <v>2.6809651474530823E-3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="23"/>
+        <v>3.3500837520938024E-3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="14"/>
+        <v>7.9874293666299963</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="15"/>
+        <v>1.1223061146042889E-5</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="16"/>
+        <v>63.799027886903261</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="17"/>
+        <v>2.6758557342144041E-2</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="18"/>
-        <v>3.2362459546925568E-3</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="8"/>
-        <v>8.5882032270589264</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="9"/>
-        <v>1.0473287879263938E-5</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="10"/>
-        <v>73.757234669265358</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="11"/>
-        <v>2.7793537951647011E-2</v>
-      </c>
-      <c r="H33">
+        <v>1.122306114604289E-6</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="19"/>
-        <v>1.0524377088431081E-6</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="20"/>
-        <v>2.6809651474530823E-3</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="21"/>
-        <v>3.3500837520938024E-3</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="12"/>
-        <v>7.9874293666299963</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="13"/>
-        <v>1.1223061146042889E-5</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="14"/>
-        <v>63.799027886903261</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="15"/>
-        <v>2.6758557342144041E-2</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="16"/>
-        <v>1.122306114604289E-6</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="17"/>
         <v>4.524886877828053E-3</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
+        <f t="shared" si="20"/>
+        <v>3.2206119162640902E-3</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="10"/>
+        <v>8.6828364351573786</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>1.0372341115182255E-5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="12"/>
+        <v>75.391648559696492</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="13"/>
+        <v>2.7964046490039866E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="21"/>
+        <v>1.0422692285644305E-6</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="22"/>
+        <v>2.4813895781637708E-3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="23"/>
+        <v>3.3670033670033669E-3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="14"/>
+        <v>7.8825714898367352</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="15"/>
+        <v>1.1336711673412009E-5</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="16"/>
+        <v>62.134933292386926</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="17"/>
+        <v>2.6540644746925034E-2</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="18"/>
-        <v>3.2206119162640902E-3</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="8"/>
-        <v>8.6828364351573786</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="9"/>
-        <v>1.0372341115182255E-5</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="10"/>
-        <v>75.391648559696492</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="11"/>
-        <v>2.7964046490039866E-2</v>
-      </c>
-      <c r="H34">
+        <v>1.1336711673412011E-6</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="19"/>
-        <v>1.0422692285644305E-6</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="20"/>
-        <v>2.4813895781637708E-3</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="21"/>
-        <v>3.3670033670033669E-3</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="12"/>
-        <v>7.8825714898367352</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="13"/>
-        <v>1.1336711673412009E-5</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="14"/>
-        <v>62.134933292386926</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="15"/>
-        <v>2.6540644746925034E-2</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="16"/>
-        <v>1.1336711673412011E-6</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="17"/>
         <v>5.0251256281407036E-3</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
+        <f t="shared" si="20"/>
+        <v>3.205128205128205E-3</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="10"/>
+        <v>8.7692833187648169</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="11"/>
+        <v>1.0272846811308349E-5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="12"/>
+        <v>76.900329924766879</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="13"/>
+        <v>2.8106677303733386E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="21"/>
+        <v>1.0322474090590032E-6</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="22"/>
+        <v>2.257336343115124E-3</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="23"/>
+        <v>3.3840947546531302E-3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="14"/>
+        <v>7.7425582596100222</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="15"/>
+        <v>1.1452097308470829E-5</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="16"/>
+        <v>59.947208403455377</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="17"/>
+        <v>2.6201550793942544E-2</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="18"/>
-        <v>3.205128205128205E-3</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="8"/>
-        <v>8.7692833187648169</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="9"/>
-        <v>1.0272846811308349E-5</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="10"/>
-        <v>76.900329924766879</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="11"/>
-        <v>2.8106677303733386E-2</v>
-      </c>
-      <c r="H35">
+        <v>1.1452097308470829E-6</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="19"/>
-        <v>1.0322474090590032E-6</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="20"/>
-        <v>2.257336343115124E-3</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="21"/>
-        <v>3.3840947546531302E-3</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="12"/>
-        <v>7.7425582596100222</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="13"/>
-        <v>1.1452097308470829E-5</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="14"/>
-        <v>59.947208403455377</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="15"/>
-        <v>2.6201550793942544E-2</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="16"/>
-        <v>1.1452097308470829E-6</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="17"/>
         <v>5.7803468208092465E-3</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.189792663476874E-3</v>
       </c>
       <c r="B36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.8526649277038665</v>
       </c>
       <c r="D36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.017477723597089E-5</v>
       </c>
       <c r="E36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>78.369676322198103</v>
       </c>
       <c r="F36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.8238165638608825E-2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0223694434220752E-6</v>
       </c>
       <c r="I36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.0703933747411997E-3</v>
       </c>
       <c r="L36">
@@ -1938,27 +1938,27 @@
         <v>3.4013605442176869E-3</v>
       </c>
       <c r="M36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.6581708673324744</v>
       </c>
       <c r="O36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1569253551760839E-5</v>
       </c>
       <c r="P36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>58.647581033259826</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.6048200229022021E-2</v>
       </c>
       <c r="S36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1569253551760842E-6</v>
       </c>
       <c r="T36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.2893081761006293E-3</v>
       </c>
     </row>
@@ -2000,19 +2000,19 @@
         <v>3.2873614708258773E-3</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39:F39" si="22">AVERAGE(B25:B36)</f>
+        <f t="shared" ref="B39:F39" si="24">AVERAGE(B25:B36)</f>
         <v>8.2877812167063265</v>
       </c>
       <c r="D39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0811375307947853E-5</v>
       </c>
       <c r="E39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>68.844196681484576</v>
       </c>
       <c r="F39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.7218053626278233E-2</v>
       </c>
       <c r="L39">
@@ -2020,11 +2020,11 @@
         <v>3.3014630824553548E-3</v>
       </c>
       <c r="M39">
-        <f t="shared" ref="M39:Q39" si="23">AVERAGE(M24:M36)</f>
+        <f t="shared" ref="M39:Q39" si="25">AVERAGE(M24:M36)</f>
         <v>8.2614774543042806</v>
       </c>
       <c r="O39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0903401224171665E-5</v>
       </c>
       <c r="P39">
@@ -2032,7 +2032,7 @@
         <v>68.378506227894064</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.7253247066205546E-2</v>
       </c>
     </row>
@@ -2223,19 +2223,19 @@
         <v>296.10000000000002</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B58" si="24">LN(D9)</f>
+        <f t="shared" ref="B48:B58" si="26">LN(D9)</f>
         <v>7.7072604775289983</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:D58" si="25">A48*A48</f>
+        <f t="shared" ref="D48:D58" si="27">A48*A48</f>
         <v>87675.21</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:E58" si="26">B48*B48</f>
+        <f t="shared" ref="E48:E58" si="28">B48*B48</f>
         <v>59.401864068480521</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48:F58" si="27">A48*B48</f>
+        <f t="shared" ref="F48:F58" si="29">A48*B48</f>
         <v>2282.1198273963364</v>
       </c>
       <c r="H48">
@@ -2248,19 +2248,19 @@
         <v>310.5</v>
       </c>
       <c r="M48">
-        <f t="shared" ref="M48:M60" si="28">LN(O8)</f>
+        <f t="shared" ref="M48:M58" si="30">LN(O8)</f>
         <v>8.7051587905952772</v>
       </c>
       <c r="O48">
-        <f t="shared" ref="O48:O58" si="29">L48*L48</f>
+        <f t="shared" ref="O48:O57" si="31">L48*L48</f>
         <v>96410.25</v>
       </c>
       <c r="P48">
-        <f t="shared" ref="P48:P59" si="30">M48*M48</f>
+        <f t="shared" ref="P48:P59" si="32">M48*M48</f>
         <v>75.779789569478226</v>
       </c>
       <c r="Q48">
-        <f t="shared" ref="Q48:Q59" si="31">L48*M48</f>
+        <f t="shared" ref="Q48:Q58" si="33">L48*M48</f>
         <v>2702.9518044798338</v>
       </c>
       <c r="S48">
@@ -2275,19 +2275,19 @@
         <v>298</v>
       </c>
       <c r="B49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.8724703938502314</v>
       </c>
       <c r="D49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>88804</v>
       </c>
       <c r="E49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>61.975790102048414</v>
       </c>
       <c r="F49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2345.996177367369</v>
       </c>
       <c r="H49">
@@ -2300,19 +2300,19 @@
         <v>309</v>
       </c>
       <c r="M49">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.6175451853429408</v>
       </c>
       <c r="O49">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>95481</v>
       </c>
       <c r="P49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>74.262085021427296</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2662.8214622709688</v>
       </c>
       <c r="S49">
@@ -2327,19 +2327,19 @@
         <v>300</v>
       </c>
       <c r="B50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.0053670673166639</v>
       </c>
       <c r="D50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>90000</v>
       </c>
       <c r="E50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>64.085901882478211</v>
       </c>
       <c r="F50">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2401.6101201949991</v>
       </c>
       <c r="H50">
@@ -2352,19 +2352,19 @@
         <v>307.5</v>
       </c>
       <c r="M50">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.5476913581420249</v>
       </c>
       <c r="O50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>94556.25</v>
       </c>
       <c r="P50">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>73.06302755405585</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2628.4150926286725</v>
       </c>
       <c r="S50">
@@ -2379,19 +2379,19 @@
         <v>302.10000000000002</v>
       </c>
       <c r="B51">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.1460947268117803</v>
       </c>
       <c r="D51">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>91264.410000000018</v>
       </c>
       <c r="E51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>66.358859298190694</v>
       </c>
       <c r="F51">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2460.9352169698391</v>
       </c>
       <c r="H51">
@@ -2404,19 +2404,19 @@
         <v>306</v>
       </c>
       <c r="M51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.4725890536005224</v>
       </c>
       <c r="O51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>93636</v>
       </c>
       <c r="P51">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>71.78476527119139</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2592.6122504017599</v>
       </c>
       <c r="S51">
@@ -2431,19 +2431,19 @@
         <v>304</v>
       </c>
       <c r="B52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.2694392741293097</v>
       </c>
       <c r="D52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>92416</v>
       </c>
       <c r="E52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>68.383625908512286</v>
       </c>
       <c r="F52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2513.90953933531</v>
       </c>
       <c r="H52">
@@ -2456,19 +2456,19 @@
         <v>304.5</v>
       </c>
       <c r="M52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.3792268360094955</v>
       </c>
       <c r="O52">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>92720.25</v>
       </c>
       <c r="P52">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>70.211442369301707</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2551.4745715648914</v>
       </c>
       <c r="S52">
@@ -2483,19 +2483,19 @@
         <v>306</v>
       </c>
       <c r="B53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.4033971969373091</v>
       </c>
       <c r="D53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>93636</v>
       </c>
       <c r="E53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>70.617084449493831</v>
       </c>
       <c r="F53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2571.4395422628168</v>
       </c>
       <c r="H53">
@@ -2508,19 +2508,19 @@
         <v>303</v>
       </c>
       <c r="M53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.3029994706216126</v>
       </c>
       <c r="O53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>91809</v>
       </c>
       <c r="P53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>68.939800209142774</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2515.8088395983486</v>
       </c>
       <c r="S53">
@@ -2535,19 +2535,19 @@
         <v>307.5</v>
       </c>
       <c r="B54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.5108450847560579</v>
       </c>
       <c r="D54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>94556.25</v>
       </c>
       <c r="E54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>72.434484056716357</v>
       </c>
       <c r="F54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2617.084863562488</v>
       </c>
       <c r="H54">
@@ -2560,19 +2560,19 @@
         <v>301.5</v>
       </c>
       <c r="M54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.1987384602972035</v>
       </c>
       <c r="O54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>90902.25</v>
       </c>
       <c r="P54">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>67.219312340356566</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2471.919645779607</v>
       </c>
       <c r="S54">
@@ -2587,19 +2587,19 @@
         <v>309</v>
       </c>
       <c r="B55">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.5882032270589264</v>
       </c>
       <c r="D55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>95481</v>
       </c>
       <c r="E55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>73.757234669265358</v>
       </c>
       <c r="F55">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2653.7547971612084</v>
       </c>
       <c r="H55">
@@ -2612,19 +2612,19 @@
         <v>300</v>
       </c>
       <c r="M55">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.0986550017402195</v>
       </c>
       <c r="O55">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>90000</v>
       </c>
       <c r="P55">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>65.58821283721187</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2429.596500522066</v>
       </c>
       <c r="S55">
@@ -2639,19 +2639,19 @@
         <v>310.5</v>
       </c>
       <c r="B56">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.6828364351573786</v>
       </c>
       <c r="D56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>96410.25</v>
       </c>
       <c r="E56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>75.391648559696492</v>
       </c>
       <c r="F56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2696.0207131163661</v>
       </c>
       <c r="H56">
@@ -2664,19 +2664,19 @@
         <v>298.5</v>
       </c>
       <c r="M56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.9874293666299963</v>
       </c>
       <c r="O56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>89102.25</v>
       </c>
       <c r="P56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>63.799027886903261</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2384.2476659390541</v>
       </c>
       <c r="S56">
@@ -2691,19 +2691,19 @@
         <v>312</v>
       </c>
       <c r="B57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.7692833187648169</v>
       </c>
       <c r="D57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>97344</v>
       </c>
       <c r="E57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>76.900329924766879</v>
       </c>
       <c r="F57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2736.0163954546229</v>
       </c>
       <c r="H57">
@@ -2716,19 +2716,19 @@
         <v>297</v>
       </c>
       <c r="M57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.8825714898367352</v>
       </c>
       <c r="O57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>88209</v>
       </c>
       <c r="P57">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>62.134933292386926</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2341.1237324815102</v>
       </c>
       <c r="S57">
@@ -2743,19 +2743,19 @@
         <v>313.5</v>
       </c>
       <c r="B58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.8526649277038665</v>
       </c>
       <c r="D58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>98282.25</v>
       </c>
       <c r="E58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>78.369676322198103</v>
       </c>
       <c r="F58">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2775.3104548351621</v>
       </c>
       <c r="H58">
@@ -2768,7 +2768,7 @@
         <v>295.5</v>
       </c>
       <c r="M58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.7425582596100222</v>
       </c>
       <c r="O58">
@@ -2776,11 +2776,11 @@
         <v>87320.25</v>
       </c>
       <c r="P58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>59.947208403455377</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2287.9259657147613</v>
       </c>
       <c r="S58">
@@ -2803,7 +2803,7 @@
         <v>86436</v>
       </c>
       <c r="P59">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>58.647581033259826</v>
       </c>
       <c r="Q59">
@@ -2875,19 +2875,19 @@
         <v>303</v>
       </c>
       <c r="M61">
-        <f t="shared" ref="M61:Q61" si="32">AVERAGE(M47:M59)</f>
+        <f t="shared" ref="M61:Q61" si="34">AVERAGE(M47:M59)</f>
         <v>8.2614774543042806</v>
       </c>
       <c r="O61">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>91840.5</v>
       </c>
       <c r="P61">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>68.378506227894064</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2505.2178514946704</v>
       </c>
     </row>
@@ -3004,24 +3004,24 @@
         <v>23</v>
       </c>
       <c r="M67">
-        <f>(8.31*L47*L47*$B$65*$B$63)/O8*EXP($B$63*L47)/0.018</f>
-        <v>3029657.8688090807</v>
+        <f>(8.31*L47*L47*$B$65*$B$63)/O7*EXP($B$63*L47)/0.018</f>
+        <v>2739391.2466477319</v>
       </c>
       <c r="N67" t="s">
         <v>24</v>
       </c>
       <c r="O67">
         <f>M67*SQRT(((2/L47+$B$63)*$F$1)^2 + ((1/$B$63+L47)*$E$63)^2 + ($E$65/$B$65)^2 + ($F$3/O7)^2)</f>
-        <v>1233234.9694968138</v>
+        <v>1115080.7209222687</v>
       </c>
       <c r="Q67">
         <f>O67/M67</f>
-        <v>0.40705420311422247</v>
+        <v>0.40705420311422236</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B68">
-        <f t="shared" ref="B68:B80" si="33">(8.31*A48*A48*$B$65*$B$63)/D9*EXP($B$63*A48)/0.018</f>
+        <f t="shared" ref="B68:B78" si="35">(8.31*A48*A48*$B$65*$B$63)/D9*EXP($B$63*A48)/0.018</f>
         <v>2715473.2886259691</v>
       </c>
       <c r="D68">
@@ -3029,263 +3029,263 @@
         <v>1052662.8482100908</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F78" si="34">D68/B68</f>
+        <f t="shared" ref="F68:F77" si="36">D68/B68</f>
         <v>0.38765354556028009</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M78" si="35">(8.31*L48*L48*$B$65*$B$63)/O9*EXP($B$63*L48)/0.018</f>
-        <v>2979703.5098358993</v>
+        <f t="shared" ref="M68:M79" si="37">(8.31*L48*L48*$B$65*$B$63)/O8*EXP($B$63*L48)/0.018</f>
+        <v>2729750.4560306785</v>
       </c>
       <c r="O68">
-        <f>M68*SQRT(((2/L48+$B$63)*$F$1)^2 + ((1/$B$63+L48)*$E$63)^2 + ($E$65/$B$65)^2 + ($F$3/O8)^2)</f>
-        <v>1207435.3898524251</v>
+        <f t="shared" ref="O68:O79" si="38">M68*SQRT(((2/L48+$B$63)*$F$1)^2 + ((1/$B$63+L48)*$E$63)^2 + ($E$65/$B$65)^2 + ($F$3/O8)^2)</f>
+        <v>1106149.4189597263</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q78" si="36">O68/M68</f>
+        <f t="shared" ref="Q68:Q77" si="39">O68/M68</f>
         <v>0.40521997771480356</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2628403.6673781397</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D68:D78" si="37">B69*SQRT(((2/A49+$B$63)*$F$1)^2 + ((1/$B$63+A49)*$E$63)^2 + ($E$65/$B$65)^2 + ($F$3/D9)^2)</f>
+        <f t="shared" ref="D69:D78" si="40">B69*SQRT(((2/A49+$B$63)*$F$1)^2 + ((1/$B$63+A49)*$E$63)^2 + ($E$65/$B$65)^2 + ($F$3/D9)^2)</f>
         <v>1024999.5904269494</v>
       </c>
       <c r="F69">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.38997038512330084</v>
       </c>
       <c r="M69">
-        <f t="shared" si="35"/>
-        <v>2878851.5629469031</v>
+        <f t="shared" si="37"/>
+        <v>2684615.7948444621</v>
       </c>
       <c r="O69">
-        <f t="shared" ref="O69:O78" si="38">M69*SQRT(((2/L49+$B$63)*$F$1)^2 + ((1/$B$63+L49)*$E$63)^2 + ($E$65/$B$65)^2 + ($F$3/O9)^2)</f>
-        <v>1161288.2471629651</v>
+        <f t="shared" si="38"/>
+        <v>1082936.2690411268</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.40338594115433513</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2645850.5054780119</v>
       </c>
       <c r="D70">
+        <f t="shared" si="40"/>
+        <v>1038239.5480383928</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="36"/>
+        <v>0.39240295167425548</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="37"/>
-        <v>1038239.5480383928</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="34"/>
-        <v>0.39240295167425548</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="35"/>
-        <v>2795917.8656438659</v>
+        <v>2593629.2345378492</v>
       </c>
       <c r="O70">
         <f t="shared" si="38"/>
-        <v>1122706.3070056529</v>
+        <v>1041476.9101163548</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.40155196288182354</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B71">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2660881.4337410675</v>
       </c>
       <c r="D71">
+        <f t="shared" si="40"/>
+        <v>1050950.7240398601</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="36"/>
+        <v>0.39496337969568052</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="37"/>
-        <v>1050950.7240398601</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="34"/>
-        <v>0.39496337969568052</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="35"/>
-        <v>2765279.642976854</v>
+        <v>2518792.3210401982</v>
       </c>
       <c r="O71">
         <f t="shared" si="38"/>
-        <v>1105333.1178074109</v>
+        <v>1006807.6031281987</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.39971838675147792</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2684997.9265465359</v>
       </c>
       <c r="D72">
+        <f t="shared" si="40"/>
+        <v>1066698.715512298</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="36"/>
+        <v>0.39728102020707845</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="37"/>
-        <v>1066698.715512298</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="34"/>
-        <v>0.39728102020707845</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="35"/>
-        <v>2688383.7419827161</v>
+        <v>2491071.1737638023</v>
       </c>
       <c r="O72">
         <f t="shared" si="38"/>
-        <v>1069669.1629461029</v>
+        <v>991161.33447299479</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.39788559432263515</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2699243.1141893459</v>
       </c>
       <c r="D73">
+        <f t="shared" si="40"/>
+        <v>1078950.2348045551</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="36"/>
+        <v>0.39972325172665762</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="37"/>
-        <v>1078950.2348045551</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="34"/>
-        <v>0.39972325172665762</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="35"/>
-        <v>2687801.8191577853</v>
+        <v>2421682.827161965</v>
       </c>
       <c r="O73">
         <f t="shared" si="38"/>
-        <v>1064511.6650826959</v>
+        <v>959114.47052005271</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.39605288511050174</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2690977.2487028083</v>
       </c>
       <c r="D74">
+        <f t="shared" si="40"/>
+        <v>1080574.680838254</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="36"/>
+        <v>0.40155474423247078</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="37"/>
-        <v>1080574.680838254</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="34"/>
-        <v>0.40155474423247078</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="35"/>
-        <v>2675886.2746635261</v>
+        <v>2421039.9627908086</v>
       </c>
       <c r="O74">
         <f t="shared" si="38"/>
-        <v>1054892.106431609</v>
+        <v>954426.19153336028</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.39422157676123748</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2764554.7267008713</v>
       </c>
       <c r="D75">
+        <f t="shared" si="40"/>
+        <v>1115187.2432883219</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="36"/>
+        <v>0.40338765317883568</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="37"/>
-        <v>1115187.2432883219</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="34"/>
-        <v>0.40338765317883568</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="35"/>
-        <v>2693739.2024097396</v>
+        <v>2410187.7074192427</v>
       </c>
       <c r="O75">
         <f t="shared" si="38"/>
-        <v>1056999.031067176</v>
+        <v>945735.97516536887</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.39239100434133189</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2791370.1051510107</v>
       </c>
       <c r="D76">
+        <f t="shared" si="40"/>
+        <v>1131123.3549666575</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="36"/>
+        <v>0.40522156229994616</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="37"/>
-        <v>1131123.3549666575</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="34"/>
-        <v>0.40522156229994616</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="35"/>
-        <v>2694363.8571241996</v>
+        <v>2426146.6405778988</v>
       </c>
       <c r="O76">
         <f t="shared" si="38"/>
-        <v>1052316.2065020839</v>
+        <v>947560.74703128799</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.39056202588215472</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2841480.361429634</v>
       </c>
       <c r="D77">
+        <f t="shared" si="40"/>
+        <v>1156640.4037134191</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="36"/>
+        <v>0.40705556843316648</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="37"/>
-        <v>1156640.4037134191</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="34"/>
-        <v>0.40705556843316648</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="35"/>
-        <v>2791276.0150745823</v>
+        <v>2426586.6864718739</v>
       </c>
       <c r="O77">
         <f t="shared" si="38"/>
-        <v>1085064.2484462196</v>
+        <v>943297.06020701537</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="36"/>
-        <v>0.38873412825754777</v>
+        <f t="shared" si="39"/>
+        <v>0.38873412825754783</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2901235.9466443071</v>
       </c>
       <c r="D78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1186286.4176107768</v>
       </c>
       <c r="F78">
@@ -3293,16 +3293,50 @@
         <v>0.40889001771223954</v>
       </c>
       <c r="M78">
-        <f t="shared" si="35"/>
-        <v>2735074.5793387154</v>
+        <f t="shared" si="37"/>
+        <v>2513739.0642477204</v>
       </c>
       <c r="O78">
         <f t="shared" si="38"/>
-        <v>1058229.9002612277</v>
+        <v>972592.79850598355</v>
       </c>
       <c r="Q78">
         <f>O78/M78</f>
         <v>0.38691080245317694</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="M79">
+        <f t="shared" si="37"/>
+        <v>2462998.8106854479</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="38"/>
+        <v>948464.14589135209</v>
+      </c>
+      <c r="Q79">
+        <f>O79/M79</f>
+        <v>0.38508510104696164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <f>AVERAGE(B67:B78)</f>
+        <v>2698602.0758788264</v>
+      </c>
+      <c r="D80">
+        <f>AVERAGE(D67:D78)</f>
+        <v>1074027.4329638837</v>
+      </c>
+    </row>
+    <row r="82" spans="13:15" x14ac:dyDescent="0.35">
+      <c r="M82">
+        <f>AVERAGE(M67:M79)</f>
+        <v>2526125.532786129</v>
+      </c>
+      <c r="O82">
+        <f>AVERAGE(O67:O79)</f>
+        <v>1001138.7419611609</v>
       </c>
     </row>
   </sheetData>
